--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1889,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1924,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2064,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2099,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2169,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2309,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2344,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2554,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2624,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2659,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2869,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2904,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,6 +3135,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3099,6 +3179,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3142,6 +3223,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3185,6 +3267,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3212,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>29.48</v>
@@ -3228,6 +3311,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3255,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
@@ -3269,6 +3353,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3310,6 +3395,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3351,6 +3437,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3392,6 +3479,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3433,6 +3521,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3476,6 +3565,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3519,6 +3609,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3560,6 +3651,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3601,6 +3693,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,6 +3735,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3683,6 +3777,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3724,6 +3819,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3765,6 +3861,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3806,6 +3903,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3847,6 +3945,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3888,6 +3987,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3929,6 +4029,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3970,6 +4071,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4011,6 +4113,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4052,6 +4155,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4093,6 +4197,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4134,6 +4239,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4175,6 +4281,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4216,6 +4323,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4257,6 +4365,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4298,6 +4407,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4339,6 +4449,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4380,6 +4491,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4421,6 +4533,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4462,6 +4575,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4503,6 +4617,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4544,6 +4659,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4585,6 +4701,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4626,6 +4743,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4667,6 +4785,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4708,6 +4827,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4749,6 +4869,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4790,6 +4911,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4831,6 +4953,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4872,6 +4995,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4913,6 +5037,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4954,6 +5079,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4995,6 +5121,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.02</v>
+        <v>29.14</v>
       </c>
       <c r="C2" t="n">
-        <v>29.02</v>
+        <v>29.14</v>
       </c>
       <c r="D2" t="n">
-        <v>29.02</v>
+        <v>29.14</v>
       </c>
       <c r="E2" t="n">
-        <v>29.02</v>
+        <v>29.14</v>
       </c>
       <c r="F2" t="n">
-        <v>448.4974</v>
+        <v>1991.0228</v>
       </c>
       <c r="G2" t="n">
-        <v>-757299.077893055</v>
+        <v>-738670.628893055</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.02</v>
+        <v>29.13</v>
       </c>
       <c r="C3" t="n">
-        <v>29.02</v>
+        <v>29.13</v>
       </c>
       <c r="D3" t="n">
-        <v>29.02</v>
+        <v>29.13</v>
       </c>
       <c r="E3" t="n">
-        <v>29.02</v>
+        <v>29.13</v>
       </c>
       <c r="F3" t="n">
-        <v>4672.2652</v>
+        <v>1523.7648</v>
       </c>
       <c r="G3" t="n">
-        <v>-757299.077893055</v>
+        <v>-740194.393693055</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.02</v>
+        <v>29.13</v>
       </c>
       <c r="C4" t="n">
-        <v>29.01</v>
+        <v>29.13</v>
       </c>
       <c r="D4" t="n">
-        <v>29.02</v>
+        <v>29.13</v>
       </c>
       <c r="E4" t="n">
-        <v>29.01</v>
+        <v>29.13</v>
       </c>
       <c r="F4" t="n">
-        <v>797.0959</v>
+        <v>8789.099399999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-758096.173793055</v>
+        <v>-740194.393693055</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.03</v>
+        <v>29.13</v>
       </c>
       <c r="C5" t="n">
-        <v>29.01</v>
+        <v>29.13</v>
       </c>
       <c r="D5" t="n">
-        <v>29.03</v>
+        <v>29.13</v>
       </c>
       <c r="E5" t="n">
-        <v>29.01</v>
+        <v>29.13</v>
       </c>
       <c r="F5" t="n">
-        <v>7795.2224</v>
+        <v>24252.835</v>
       </c>
       <c r="G5" t="n">
-        <v>-758096.173793055</v>
+        <v>-740194.393693055</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.01</v>
+        <v>29.13</v>
       </c>
       <c r="C6" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="D6" t="n">
-        <v>29.01</v>
+        <v>29.13</v>
       </c>
       <c r="E6" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="F6" t="n">
-        <v>598.4965999999999</v>
+        <v>7901.7801</v>
       </c>
       <c r="G6" t="n">
-        <v>-758096.173793055</v>
+        <v>-748096.173793055</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.05</v>
+        <v>29.12</v>
       </c>
       <c r="C7" t="n">
-        <v>29.05</v>
+        <v>29.12</v>
       </c>
       <c r="D7" t="n">
-        <v>29.05</v>
+        <v>29.12</v>
       </c>
       <c r="E7" t="n">
-        <v>29.05</v>
+        <v>29.12</v>
       </c>
       <c r="F7" t="n">
-        <v>2900</v>
+        <v>13037.5203</v>
       </c>
       <c r="G7" t="n">
-        <v>-755196.173793055</v>
+        <v>-748096.173793055</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.05</v>
+        <v>29.12</v>
       </c>
       <c r="C8" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="D8" t="n">
-        <v>29.05</v>
+        <v>29.12</v>
       </c>
       <c r="E8" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="F8" t="n">
-        <v>54234.272</v>
+        <v>2286.1646</v>
       </c>
       <c r="G8" t="n">
-        <v>-809430.445793055</v>
+        <v>-748096.173793055</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="C9" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="D9" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="E9" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="F9" t="n">
-        <v>9189.106</v>
+        <v>10103.51</v>
       </c>
       <c r="G9" t="n">
-        <v>-809430.445793055</v>
+        <v>-748096.173793055</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="C10" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="D10" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="E10" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="F10" t="n">
-        <v>13256.0506</v>
+        <v>12288.8469</v>
       </c>
       <c r="G10" t="n">
-        <v>-809430.445793055</v>
+        <v>-748096.173793055</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29.2</v>
+        <v>29.12</v>
       </c>
       <c r="C11" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="D11" t="n">
-        <v>29.2</v>
+        <v>29.12</v>
       </c>
       <c r="E11" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="F11" t="n">
-        <v>7011.845</v>
+        <v>12500</v>
       </c>
       <c r="G11" t="n">
-        <v>-809430.445793055</v>
+        <v>-748096.173793055</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="C12" t="n">
-        <v>29.01</v>
+        <v>29.11</v>
       </c>
       <c r="D12" t="n">
-        <v>29.01</v>
+        <v>29.12</v>
       </c>
       <c r="E12" t="n">
-        <v>29.01</v>
+        <v>29.11</v>
       </c>
       <c r="F12" t="n">
-        <v>3276.0226</v>
+        <v>4500</v>
       </c>
       <c r="G12" t="n">
-        <v>-809430.445793055</v>
+        <v>-752596.173793055</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.01</v>
+        <v>29.11</v>
       </c>
       <c r="C13" t="n">
-        <v>29.01</v>
+        <v>29.11</v>
       </c>
       <c r="D13" t="n">
-        <v>29.01</v>
+        <v>29.11</v>
       </c>
       <c r="E13" t="n">
-        <v>29.01</v>
+        <v>29.11</v>
       </c>
       <c r="F13" t="n">
-        <v>96125.8435</v>
+        <v>7229.2673</v>
       </c>
       <c r="G13" t="n">
-        <v>-809430.445793055</v>
+        <v>-752596.173793055</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="C14" t="n">
-        <v>28.95</v>
+        <v>29.11</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="E14" t="n">
-        <v>28.95</v>
+        <v>29.11</v>
       </c>
       <c r="F14" t="n">
-        <v>3282.0659</v>
+        <v>7500</v>
       </c>
       <c r="G14" t="n">
-        <v>-812712.511693055</v>
+        <v>-752596.173793055</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>29.11</v>
       </c>
       <c r="F15" t="n">
-        <v>505.9998</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>-812206.5118930551</v>
+        <v>-752596.173793055</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.81</v>
+        <v>29.11</v>
       </c>
       <c r="C16" t="n">
-        <v>28.81</v>
+        <v>29.04</v>
       </c>
       <c r="D16" t="n">
-        <v>28.81</v>
+        <v>29.11</v>
       </c>
       <c r="E16" t="n">
-        <v>28.81</v>
+        <v>29.04</v>
       </c>
       <c r="F16" t="n">
-        <v>15599.6018</v>
+        <v>4500</v>
       </c>
       <c r="G16" t="n">
-        <v>-827806.113693055</v>
+        <v>-757096.173793055</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8</v>
+        <v>29.05</v>
       </c>
       <c r="C17" t="n">
-        <v>28.8</v>
+        <v>29.04</v>
       </c>
       <c r="D17" t="n">
-        <v>28.8</v>
+        <v>29.05</v>
       </c>
       <c r="E17" t="n">
-        <v>28.8</v>
+        <v>29.04</v>
       </c>
       <c r="F17" t="n">
-        <v>19392.5089</v>
+        <v>28066.0362</v>
       </c>
       <c r="G17" t="n">
-        <v>-847198.622593055</v>
+        <v>-757096.173793055</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.74</v>
+        <v>29.04</v>
       </c>
       <c r="C18" t="n">
-        <v>28.73</v>
+        <v>29.04</v>
       </c>
       <c r="D18" t="n">
-        <v>28.74</v>
+        <v>29.04</v>
       </c>
       <c r="E18" t="n">
-        <v>28.73</v>
+        <v>29.04</v>
       </c>
       <c r="F18" t="n">
-        <v>61167.3566</v>
+        <v>1727.2909</v>
       </c>
       <c r="G18" t="n">
-        <v>-908365.9791930551</v>
+        <v>-757096.173793055</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.9</v>
+        <v>29.04</v>
       </c>
       <c r="C19" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="D19" t="n">
-        <v>28.9</v>
+        <v>29.04</v>
       </c>
       <c r="E19" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>-908315.9791930551</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.2</v>
+        <v>29.01</v>
       </c>
       <c r="C20" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="D20" t="n">
-        <v>29.2</v>
+        <v>29.01</v>
       </c>
       <c r="E20" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="F20" t="n">
-        <v>85190.95110000001</v>
+        <v>10944.5456</v>
       </c>
       <c r="G20" t="n">
-        <v>-993506.930293055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="C21" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="D21" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="E21" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="F21" t="n">
-        <v>26570.7203</v>
+        <v>3054.5543</v>
       </c>
       <c r="G21" t="n">
-        <v>-993506.930293055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.8</v>
+        <v>29.02</v>
       </c>
       <c r="C22" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="D22" t="n">
-        <v>28.8</v>
+        <v>29.02</v>
       </c>
       <c r="E22" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="F22" t="n">
-        <v>7980.34</v>
+        <v>3478.6398</v>
       </c>
       <c r="G22" t="n">
-        <v>-993506.930293055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>29.01</v>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>29.01</v>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>29.01</v>
       </c>
       <c r="E23" t="n">
-        <v>29</v>
+        <v>29.01</v>
       </c>
       <c r="F23" t="n">
-        <v>25.0208</v>
+        <v>678.6685</v>
       </c>
       <c r="G23" t="n">
-        <v>-993481.909493055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="C24" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="D24" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="E24" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="F24" t="n">
-        <v>77954.3789</v>
+        <v>2500</v>
       </c>
       <c r="G24" t="n">
-        <v>-1071436.288393055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="C25" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="D25" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="E25" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="F25" t="n">
-        <v>120915.3148</v>
+        <v>1512.492</v>
       </c>
       <c r="G25" t="n">
-        <v>-1071436.288393055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.1</v>
+        <v>29.01</v>
       </c>
       <c r="C26" t="n">
-        <v>28.98</v>
+        <v>29.01</v>
       </c>
       <c r="D26" t="n">
-        <v>29.2</v>
+        <v>29.01</v>
       </c>
       <c r="E26" t="n">
-        <v>28.98</v>
+        <v>29.01</v>
       </c>
       <c r="F26" t="n">
-        <v>44616.5066</v>
+        <v>594.6244</v>
       </c>
       <c r="G26" t="n">
-        <v>-1026819.781793055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.1</v>
+        <v>29.01</v>
       </c>
       <c r="C27" t="n">
-        <v>29.1</v>
+        <v>29.01</v>
       </c>
       <c r="D27" t="n">
-        <v>29.1</v>
+        <v>29.01</v>
       </c>
       <c r="E27" t="n">
-        <v>29.1</v>
+        <v>29.01</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-1026769.781793055</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="C28" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="D28" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="E28" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>797.0959</v>
       </c>
       <c r="G28" t="n">
-        <v>-1026751.781793055</v>
+        <v>-757299.077893055</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="C29" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="D29" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="E29" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="F29" t="n">
-        <v>12614.1185</v>
+        <v>10500</v>
       </c>
       <c r="G29" t="n">
-        <v>-1026751.781793055</v>
+        <v>-757299.077893055</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="C30" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="D30" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="E30" t="n">
-        <v>29.3</v>
+        <v>29.02</v>
       </c>
       <c r="F30" t="n">
-        <v>7027.0559</v>
+        <v>3476.3015</v>
       </c>
       <c r="G30" t="n">
-        <v>-1026751.781793055</v>
+        <v>-757299.077893055</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29.5</v>
+        <v>29.02</v>
       </c>
       <c r="C31" t="n">
-        <v>29.31</v>
+        <v>29.02</v>
       </c>
       <c r="D31" t="n">
-        <v>29.5</v>
+        <v>29.02</v>
       </c>
       <c r="E31" t="n">
-        <v>29.31</v>
+        <v>29.02</v>
       </c>
       <c r="F31" t="n">
-        <v>1831.7906</v>
+        <v>448.4974</v>
       </c>
       <c r="G31" t="n">
-        <v>-1024919.991193055</v>
+        <v>-757299.077893055</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29.33</v>
+        <v>29.02</v>
       </c>
       <c r="C32" t="n">
-        <v>29.33</v>
+        <v>29.02</v>
       </c>
       <c r="D32" t="n">
-        <v>29.33</v>
+        <v>29.02</v>
       </c>
       <c r="E32" t="n">
-        <v>29.33</v>
+        <v>29.02</v>
       </c>
       <c r="F32" t="n">
-        <v>831.0427</v>
+        <v>4672.2652</v>
       </c>
       <c r="G32" t="n">
-        <v>-1024088.948493055</v>
+        <v>-757299.077893055</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.4</v>
+        <v>29.02</v>
       </c>
       <c r="C33" t="n">
-        <v>29.5</v>
+        <v>29.01</v>
       </c>
       <c r="D33" t="n">
-        <v>29.5</v>
+        <v>29.02</v>
       </c>
       <c r="E33" t="n">
-        <v>29.4</v>
+        <v>29.01</v>
       </c>
       <c r="F33" t="n">
-        <v>30318.006</v>
+        <v>797.0959</v>
       </c>
       <c r="G33" t="n">
-        <v>-993770.9424930549</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>29.42</v>
+        <v>29.03</v>
       </c>
       <c r="C34" t="n">
-        <v>29.5</v>
+        <v>29.01</v>
       </c>
       <c r="D34" t="n">
-        <v>29.5</v>
+        <v>29.03</v>
       </c>
       <c r="E34" t="n">
-        <v>29.42</v>
+        <v>29.01</v>
       </c>
       <c r="F34" t="n">
-        <v>3952.7755</v>
+        <v>7795.2224</v>
       </c>
       <c r="G34" t="n">
-        <v>-993770.9424930549</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.5</v>
+        <v>29.01</v>
       </c>
       <c r="C35" t="n">
-        <v>29.5</v>
+        <v>29.01</v>
       </c>
       <c r="D35" t="n">
-        <v>29.5</v>
+        <v>29.01</v>
       </c>
       <c r="E35" t="n">
-        <v>29.5</v>
+        <v>29.01</v>
       </c>
       <c r="F35" t="n">
-        <v>9260.4218</v>
+        <v>598.4965999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-993770.9424930549</v>
+        <v>-758096.173793055</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>29.5</v>
+        <v>29.05</v>
       </c>
       <c r="C36" t="n">
-        <v>29.7</v>
+        <v>29.05</v>
       </c>
       <c r="D36" t="n">
-        <v>29.8</v>
+        <v>29.05</v>
       </c>
       <c r="E36" t="n">
-        <v>29.5</v>
+        <v>29.05</v>
       </c>
       <c r="F36" t="n">
-        <v>35725.9933</v>
+        <v>2900</v>
       </c>
       <c r="G36" t="n">
-        <v>-958044.9491930549</v>
+        <v>-755196.173793055</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,32 +1698,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.74</v>
+        <v>29.05</v>
       </c>
       <c r="C37" t="n">
-        <v>29.64</v>
+        <v>29.01</v>
       </c>
       <c r="D37" t="n">
-        <v>29.74</v>
+        <v>29.05</v>
       </c>
       <c r="E37" t="n">
-        <v>29.64</v>
+        <v>29.01</v>
       </c>
       <c r="F37" t="n">
-        <v>18641.1744</v>
+        <v>54234.272</v>
       </c>
       <c r="G37" t="n">
-        <v>-976686.1235930549</v>
+        <v>-809430.445793055</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>29.05</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1740,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.53</v>
+        <v>29.01</v>
       </c>
       <c r="C38" t="n">
-        <v>29.79</v>
+        <v>29.01</v>
       </c>
       <c r="D38" t="n">
-        <v>29.79</v>
+        <v>29.01</v>
       </c>
       <c r="E38" t="n">
-        <v>29.53</v>
+        <v>29.01</v>
       </c>
       <c r="F38" t="n">
-        <v>373718.2031</v>
+        <v>9189.106</v>
       </c>
       <c r="G38" t="n">
-        <v>-602967.9204930549</v>
+        <v>-809430.445793055</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1765,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1780,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.62</v>
+        <v>29.01</v>
       </c>
       <c r="C39" t="n">
-        <v>29.52</v>
+        <v>29.01</v>
       </c>
       <c r="D39" t="n">
-        <v>29.62</v>
+        <v>29.01</v>
       </c>
       <c r="E39" t="n">
-        <v>29.52</v>
+        <v>29.01</v>
       </c>
       <c r="F39" t="n">
-        <v>52354.1281</v>
+        <v>13256.0506</v>
       </c>
       <c r="G39" t="n">
-        <v>-655322.0485930549</v>
+        <v>-809430.445793055</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>29.01</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1822,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.73</v>
+        <v>29.2</v>
       </c>
       <c r="C40" t="n">
-        <v>29.73</v>
+        <v>29.01</v>
       </c>
       <c r="D40" t="n">
-        <v>29.73</v>
+        <v>29.2</v>
       </c>
       <c r="E40" t="n">
-        <v>29.73</v>
+        <v>29.01</v>
       </c>
       <c r="F40" t="n">
-        <v>5500</v>
+        <v>7011.845</v>
       </c>
       <c r="G40" t="n">
-        <v>-649822.0485930549</v>
+        <v>-809430.445793055</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.01</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1864,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.8</v>
+        <v>29.01</v>
       </c>
       <c r="C41" t="n">
-        <v>29.9</v>
+        <v>29.01</v>
       </c>
       <c r="D41" t="n">
-        <v>29.9</v>
+        <v>29.01</v>
       </c>
       <c r="E41" t="n">
-        <v>29.8</v>
+        <v>29.01</v>
       </c>
       <c r="F41" t="n">
-        <v>41412.4649</v>
+        <v>3276.0226</v>
       </c>
       <c r="G41" t="n">
-        <v>-608409.5836930549</v>
+        <v>-809430.445793055</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +1889,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +1904,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.97</v>
+        <v>29.01</v>
       </c>
       <c r="C42" t="n">
-        <v>30.05</v>
+        <v>29.01</v>
       </c>
       <c r="D42" t="n">
-        <v>30.05</v>
+        <v>29.01</v>
       </c>
       <c r="E42" t="n">
-        <v>29.97</v>
+        <v>29.01</v>
       </c>
       <c r="F42" t="n">
-        <v>4500</v>
+        <v>96125.8435</v>
       </c>
       <c r="G42" t="n">
-        <v>-603909.5836930549</v>
+        <v>-809430.445793055</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +1929,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +1944,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.05</v>
+        <v>29</v>
       </c>
       <c r="C43" t="n">
-        <v>30.05</v>
+        <v>28.95</v>
       </c>
       <c r="D43" t="n">
-        <v>30.05</v>
+        <v>29</v>
       </c>
       <c r="E43" t="n">
-        <v>30.05</v>
+        <v>28.95</v>
       </c>
       <c r="F43" t="n">
-        <v>16390.3874</v>
+        <v>3282.0659</v>
       </c>
       <c r="G43" t="n">
-        <v>-603909.5836930549</v>
+        <v>-812712.511693055</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +1984,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.06</v>
+        <v>29</v>
       </c>
       <c r="C44" t="n">
-        <v>30.06</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>30.06</v>
+        <v>29</v>
       </c>
       <c r="E44" t="n">
-        <v>30.06</v>
+        <v>29</v>
       </c>
       <c r="F44" t="n">
-        <v>5440</v>
+        <v>505.9998</v>
       </c>
       <c r="G44" t="n">
-        <v>-598469.5836930549</v>
+        <v>-812206.5118930551</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2024,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.97</v>
+        <v>28.81</v>
       </c>
       <c r="C45" t="n">
-        <v>29.97</v>
+        <v>28.81</v>
       </c>
       <c r="D45" t="n">
-        <v>29.97</v>
+        <v>28.81</v>
       </c>
       <c r="E45" t="n">
-        <v>29.97</v>
+        <v>28.81</v>
       </c>
       <c r="F45" t="n">
-        <v>1939</v>
+        <v>15599.6018</v>
       </c>
       <c r="G45" t="n">
-        <v>-600408.5836930549</v>
+        <v>-827806.113693055</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2064,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.97</v>
+        <v>28.8</v>
       </c>
       <c r="C46" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="D46" t="n">
-        <v>29.97</v>
+        <v>28.8</v>
       </c>
       <c r="E46" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="F46" t="n">
-        <v>1889.3494</v>
+        <v>19392.5089</v>
       </c>
       <c r="G46" t="n">
-        <v>-602297.9330930548</v>
+        <v>-847198.622593055</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2104,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.8</v>
+        <v>28.74</v>
       </c>
       <c r="C47" t="n">
-        <v>29.89</v>
+        <v>28.73</v>
       </c>
       <c r="D47" t="n">
-        <v>29.89</v>
+        <v>28.74</v>
       </c>
       <c r="E47" t="n">
-        <v>29.8</v>
+        <v>28.73</v>
       </c>
       <c r="F47" t="n">
-        <v>2800</v>
+        <v>61167.3566</v>
       </c>
       <c r="G47" t="n">
-        <v>-599497.9330930548</v>
+        <v>-908365.9791930551</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2146,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.71</v>
+        <v>28.9</v>
       </c>
       <c r="C48" t="n">
-        <v>29.71</v>
+        <v>28.9</v>
       </c>
       <c r="D48" t="n">
-        <v>29.71</v>
+        <v>28.9</v>
       </c>
       <c r="E48" t="n">
-        <v>29.71</v>
+        <v>28.9</v>
       </c>
       <c r="F48" t="n">
-        <v>15399.3194</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>-614897.2524930548</v>
+        <v>-908315.9791930551</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28.73</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2188,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="C49" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="D49" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="E49" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="F49" t="n">
-        <v>11325.1794</v>
+        <v>85190.95110000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-626222.4318930549</v>
+        <v>-993506.930293055</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>28.9</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2230,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="C50" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="D50" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="E50" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="F50" t="n">
-        <v>1363.2971</v>
+        <v>26570.7203</v>
       </c>
       <c r="G50" t="n">
-        <v>-626222.4318930549</v>
+        <v>-993506.930293055</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2272,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="C51" t="n">
-        <v>29.89</v>
+        <v>28.8</v>
       </c>
       <c r="D51" t="n">
-        <v>29.89</v>
+        <v>28.8</v>
       </c>
       <c r="E51" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>7980.34</v>
       </c>
       <c r="G51" t="n">
-        <v>-625722.4318930549</v>
+        <v>-993506.930293055</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2314,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="E52" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="F52" t="n">
-        <v>4696</v>
+        <v>25.0208</v>
       </c>
       <c r="G52" t="n">
-        <v>-630418.4318930549</v>
+        <v>-993481.909493055</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2356,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="C53" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="D53" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="E53" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="F53" t="n">
-        <v>4561.6994</v>
+        <v>77954.3789</v>
       </c>
       <c r="G53" t="n">
-        <v>-630418.4318930549</v>
+        <v>-1071436.288393055</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2398,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="C54" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="D54" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="E54" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>120915.3148</v>
       </c>
       <c r="G54" t="n">
-        <v>-630418.4318930549</v>
+        <v>-1071436.288393055</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>28.9</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2440,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="C55" t="n">
-        <v>29.7</v>
+        <v>28.98</v>
       </c>
       <c r="D55" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="E55" t="n">
-        <v>29.7</v>
+        <v>28.98</v>
       </c>
       <c r="F55" t="n">
-        <v>3132.688</v>
+        <v>44616.5066</v>
       </c>
       <c r="G55" t="n">
-        <v>-630418.4318930549</v>
+        <v>-1026819.781793055</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>28.9</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2482,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="C56" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="D56" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E56" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="F56" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="G56" t="n">
-        <v>-605418.4318930549</v>
+        <v>-1026769.781793055</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>28.98</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2524,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.94</v>
+        <v>29.3</v>
       </c>
       <c r="C57" t="n">
-        <v>29.94</v>
+        <v>29.3</v>
       </c>
       <c r="D57" t="n">
-        <v>29.94</v>
+        <v>29.3</v>
       </c>
       <c r="E57" t="n">
-        <v>29.94</v>
+        <v>29.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3331.6841</v>
+        <v>18</v>
       </c>
       <c r="G57" t="n">
-        <v>-602086.7477930549</v>
+        <v>-1026751.781793055</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2566,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>29.81</v>
+        <v>29.3</v>
       </c>
       <c r="C58" t="n">
-        <v>29.81</v>
+        <v>29.3</v>
       </c>
       <c r="D58" t="n">
-        <v>29.81</v>
+        <v>29.3</v>
       </c>
       <c r="E58" t="n">
-        <v>29.81</v>
+        <v>29.3</v>
       </c>
       <c r="F58" t="n">
-        <v>12543.1643</v>
+        <v>12614.1185</v>
       </c>
       <c r="G58" t="n">
-        <v>-614629.9120930549</v>
+        <v>-1026751.781793055</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2608,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.71</v>
+        <v>29.3</v>
       </c>
       <c r="C59" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D59" t="n">
-        <v>29.71</v>
+        <v>29.3</v>
       </c>
       <c r="E59" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="F59" t="n">
-        <v>10771.7009</v>
+        <v>7027.0559</v>
       </c>
       <c r="G59" t="n">
-        <v>-625401.6129930549</v>
+        <v>-1026751.781793055</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2650,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.78</v>
+        <v>29.5</v>
       </c>
       <c r="C60" t="n">
-        <v>29.78</v>
+        <v>29.31</v>
       </c>
       <c r="D60" t="n">
-        <v>29.78</v>
+        <v>29.5</v>
       </c>
       <c r="E60" t="n">
-        <v>29.78</v>
+        <v>29.31</v>
       </c>
       <c r="F60" t="n">
-        <v>12662.8177</v>
+        <v>1831.7906</v>
       </c>
       <c r="G60" t="n">
-        <v>-612738.7952930549</v>
+        <v>-1024919.991193055</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2692,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.47</v>
+        <v>29.33</v>
       </c>
       <c r="C61" t="n">
-        <v>29.47</v>
+        <v>29.33</v>
       </c>
       <c r="D61" t="n">
-        <v>29.47</v>
+        <v>29.33</v>
       </c>
       <c r="E61" t="n">
-        <v>29.47</v>
+        <v>29.33</v>
       </c>
       <c r="F61" t="n">
-        <v>773.9645</v>
+        <v>831.0427</v>
       </c>
       <c r="G61" t="n">
-        <v>-613512.7597930549</v>
+        <v>-1024088.948493055</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>29.31</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2734,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.58</v>
+        <v>29.4</v>
       </c>
       <c r="C62" t="n">
-        <v>29.59</v>
+        <v>29.5</v>
       </c>
       <c r="D62" t="n">
-        <v>29.59</v>
+        <v>29.5</v>
       </c>
       <c r="E62" t="n">
-        <v>29.58</v>
+        <v>29.4</v>
       </c>
       <c r="F62" t="n">
-        <v>38400</v>
+        <v>30318.006</v>
       </c>
       <c r="G62" t="n">
-        <v>-575112.7597930549</v>
+        <v>-993770.9424930549</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>29.33</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2776,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>29.77</v>
+        <v>29.42</v>
       </c>
       <c r="C63" t="n">
-        <v>29.77</v>
+        <v>29.5</v>
       </c>
       <c r="D63" t="n">
-        <v>29.77</v>
+        <v>29.5</v>
       </c>
       <c r="E63" t="n">
-        <v>29.77</v>
+        <v>29.42</v>
       </c>
       <c r="F63" t="n">
-        <v>1578.2316</v>
+        <v>3952.7755</v>
       </c>
       <c r="G63" t="n">
-        <v>-573534.5281930548</v>
+        <v>-993770.9424930549</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +2818,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C64" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="D64" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E64" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F64" t="n">
-        <v>4303.8218</v>
+        <v>9260.4218</v>
       </c>
       <c r="G64" t="n">
-        <v>-577838.3499930549</v>
+        <v>-993770.9424930549</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,32 +2860,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.56</v>
+        <v>29.5</v>
       </c>
       <c r="C65" t="n">
-        <v>29.56</v>
+        <v>29.7</v>
       </c>
       <c r="D65" t="n">
-        <v>29.56</v>
+        <v>29.8</v>
       </c>
       <c r="E65" t="n">
-        <v>29.56</v>
+        <v>29.5</v>
       </c>
       <c r="F65" t="n">
-        <v>2329.2511</v>
+        <v>35725.9933</v>
       </c>
       <c r="G65" t="n">
-        <v>-580167.6010930549</v>
+        <v>-958044.9491930549</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>29.5</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2902,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.56</v>
+        <v>29.74</v>
       </c>
       <c r="C66" t="n">
-        <v>29.56</v>
+        <v>29.64</v>
       </c>
       <c r="D66" t="n">
-        <v>29.56</v>
+        <v>29.74</v>
       </c>
       <c r="E66" t="n">
-        <v>29.56</v>
+        <v>29.64</v>
       </c>
       <c r="F66" t="n">
-        <v>15264.1633</v>
+        <v>18641.1744</v>
       </c>
       <c r="G66" t="n">
-        <v>-580167.6010930549</v>
+        <v>-976686.1235930549</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +2927,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2942,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.56</v>
+        <v>29.53</v>
       </c>
       <c r="C67" t="n">
-        <v>29.56</v>
+        <v>29.79</v>
       </c>
       <c r="D67" t="n">
-        <v>29.56</v>
+        <v>29.79</v>
       </c>
       <c r="E67" t="n">
-        <v>29.56</v>
+        <v>29.53</v>
       </c>
       <c r="F67" t="n">
-        <v>23700</v>
+        <v>373718.2031</v>
       </c>
       <c r="G67" t="n">
-        <v>-580167.6010930549</v>
+        <v>-602967.9204930549</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +2967,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2982,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.56</v>
+        <v>29.62</v>
       </c>
       <c r="C68" t="n">
-        <v>29.56</v>
+        <v>29.52</v>
       </c>
       <c r="D68" t="n">
-        <v>29.56</v>
+        <v>29.62</v>
       </c>
       <c r="E68" t="n">
-        <v>29.56</v>
+        <v>29.52</v>
       </c>
       <c r="F68" t="n">
-        <v>36.5904</v>
+        <v>52354.1281</v>
       </c>
       <c r="G68" t="n">
-        <v>-580167.6010930549</v>
+        <v>-655322.0485930549</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3007,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3022,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.56</v>
+        <v>29.73</v>
       </c>
       <c r="C69" t="n">
-        <v>29.56</v>
+        <v>29.73</v>
       </c>
       <c r="D69" t="n">
-        <v>29.56</v>
+        <v>29.73</v>
       </c>
       <c r="E69" t="n">
-        <v>29.56</v>
+        <v>29.73</v>
       </c>
       <c r="F69" t="n">
-        <v>213.4096</v>
+        <v>5500</v>
       </c>
       <c r="G69" t="n">
-        <v>-580167.6010930549</v>
+        <v>-649822.0485930549</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3047,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3062,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.66</v>
+        <v>29.8</v>
       </c>
       <c r="C70" t="n">
-        <v>29.66</v>
+        <v>29.9</v>
       </c>
       <c r="D70" t="n">
-        <v>29.66</v>
+        <v>29.9</v>
       </c>
       <c r="E70" t="n">
-        <v>29.66</v>
+        <v>29.8</v>
       </c>
       <c r="F70" t="n">
-        <v>33.9851652056642</v>
+        <v>41412.4649</v>
       </c>
       <c r="G70" t="n">
-        <v>-580133.6159278492</v>
+        <v>-608409.5836930549</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +3087,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3102,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.56</v>
+        <v>29.97</v>
       </c>
       <c r="C71" t="n">
-        <v>29.56</v>
+        <v>30.05</v>
       </c>
       <c r="D71" t="n">
-        <v>29.56</v>
+        <v>30.05</v>
       </c>
       <c r="E71" t="n">
-        <v>29.56</v>
+        <v>29.97</v>
       </c>
       <c r="F71" t="n">
-        <v>997.4583</v>
+        <v>4500</v>
       </c>
       <c r="G71" t="n">
-        <v>-581131.0742278493</v>
+        <v>-603909.5836930549</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,32 +3142,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.46</v>
+        <v>30.05</v>
       </c>
       <c r="C72" t="n">
-        <v>29.46</v>
+        <v>30.05</v>
       </c>
       <c r="D72" t="n">
-        <v>29.46</v>
+        <v>30.05</v>
       </c>
       <c r="E72" t="n">
-        <v>29.46</v>
+        <v>30.05</v>
       </c>
       <c r="F72" t="n">
-        <v>8860.291999999999</v>
+        <v>16390.3874</v>
       </c>
       <c r="G72" t="n">
-        <v>-589991.3662278493</v>
+        <v>-603909.5836930549</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3182,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.56</v>
+        <v>30.06</v>
       </c>
       <c r="C73" t="n">
-        <v>29.56</v>
+        <v>30.06</v>
       </c>
       <c r="D73" t="n">
-        <v>29.56</v>
+        <v>30.06</v>
       </c>
       <c r="E73" t="n">
-        <v>29.56</v>
+        <v>30.06</v>
       </c>
       <c r="F73" t="n">
-        <v>17</v>
+        <v>5440</v>
       </c>
       <c r="G73" t="n">
-        <v>-589974.3662278493</v>
+        <v>-598469.5836930549</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3019,7 +3207,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3222,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>29.32</v>
+        <v>29.97</v>
       </c>
       <c r="C74" t="n">
-        <v>29.32</v>
+        <v>29.97</v>
       </c>
       <c r="D74" t="n">
-        <v>29.32</v>
+        <v>29.97</v>
       </c>
       <c r="E74" t="n">
-        <v>29.32</v>
+        <v>29.97</v>
       </c>
       <c r="F74" t="n">
-        <v>8081.7973</v>
+        <v>1939</v>
       </c>
       <c r="G74" t="n">
-        <v>-598056.1635278492</v>
+        <v>-600408.5836930549</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3055,7 +3247,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3262,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.32</v>
+        <v>29.97</v>
       </c>
       <c r="C75" t="n">
-        <v>29.32</v>
+        <v>29.7</v>
       </c>
       <c r="D75" t="n">
-        <v>29.32</v>
+        <v>29.97</v>
       </c>
       <c r="E75" t="n">
-        <v>29.32</v>
+        <v>29.7</v>
       </c>
       <c r="F75" t="n">
-        <v>103195.3886</v>
+        <v>1889.3494</v>
       </c>
       <c r="G75" t="n">
-        <v>-598056.1635278492</v>
+        <v>-602297.9330930548</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3091,7 +3287,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,36 +3302,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.32</v>
+        <v>29.8</v>
       </c>
       <c r="C76" t="n">
-        <v>29.32</v>
+        <v>29.89</v>
       </c>
       <c r="D76" t="n">
-        <v>29.32</v>
+        <v>29.89</v>
       </c>
       <c r="E76" t="n">
-        <v>29.32</v>
+        <v>29.8</v>
       </c>
       <c r="F76" t="n">
-        <v>150457.569</v>
+        <v>2800</v>
       </c>
       <c r="G76" t="n">
-        <v>-598056.1635278492</v>
+        <v>-599497.9330930548</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="K76" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3142,38 +3342,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.32</v>
+        <v>29.71</v>
       </c>
       <c r="C77" t="n">
-        <v>29.32</v>
+        <v>29.71</v>
       </c>
       <c r="D77" t="n">
-        <v>29.32</v>
+        <v>29.71</v>
       </c>
       <c r="E77" t="n">
-        <v>29.32</v>
+        <v>29.71</v>
       </c>
       <c r="F77" t="n">
-        <v>9510</v>
+        <v>15399.3194</v>
       </c>
       <c r="G77" t="n">
-        <v>-598056.1635278492</v>
+        <v>-614897.2524930548</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="K77" t="n">
-        <v>29.32</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3186,38 +3382,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.31</v>
+        <v>29.7</v>
       </c>
       <c r="C78" t="n">
-        <v>29.31</v>
+        <v>29.7</v>
       </c>
       <c r="D78" t="n">
-        <v>29.31</v>
+        <v>29.7</v>
       </c>
       <c r="E78" t="n">
-        <v>29.31</v>
+        <v>29.7</v>
       </c>
       <c r="F78" t="n">
-        <v>4093.561</v>
+        <v>11325.1794</v>
       </c>
       <c r="G78" t="n">
-        <v>-602149.7245278492</v>
+        <v>-626222.4318930549</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="K78" t="n">
-        <v>29.32</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3230,38 +3422,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.31</v>
+        <v>29.7</v>
       </c>
       <c r="C79" t="n">
-        <v>29.48</v>
+        <v>29.7</v>
       </c>
       <c r="D79" t="n">
-        <v>29.48</v>
+        <v>29.7</v>
       </c>
       <c r="E79" t="n">
-        <v>29.31</v>
+        <v>29.7</v>
       </c>
       <c r="F79" t="n">
-        <v>8451.8688</v>
+        <v>1363.2971</v>
       </c>
       <c r="G79" t="n">
-        <v>-593697.8557278492</v>
+        <v>-626222.4318930549</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="K79" t="n">
-        <v>29.32</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3274,35 +3462,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="C80" t="n">
-        <v>29.26</v>
+        <v>29.89</v>
       </c>
       <c r="D80" t="n">
-        <v>29.26</v>
+        <v>29.89</v>
       </c>
       <c r="E80" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1425.0888</v>
+        <v>500</v>
       </c>
       <c r="G80" t="n">
-        <v>-595122.9445278492</v>
+        <v>-625722.4318930549</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>29.48</v>
-      </c>
-      <c r="K80" t="n">
-        <v>29.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,22 +3502,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.29</v>
+        <v>29.7</v>
       </c>
       <c r="C81" t="n">
-        <v>29.39</v>
+        <v>29.7</v>
       </c>
       <c r="D81" t="n">
-        <v>29.39</v>
+        <v>29.7</v>
       </c>
       <c r="E81" t="n">
-        <v>29.29</v>
+        <v>29.7</v>
       </c>
       <c r="F81" t="n">
-        <v>1426.012249064308</v>
+        <v>4696</v>
       </c>
       <c r="G81" t="n">
-        <v>-593696.9322787849</v>
+        <v>-630418.4318930549</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3342,17 +3526,13 @@
         <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>29.32</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3360,38 +3540,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="C82" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="D82" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="E82" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="F82" t="n">
-        <v>27331.5705</v>
+        <v>4561.6994</v>
       </c>
       <c r="G82" t="n">
-        <v>-621028.502778785</v>
+        <v>-630418.4318930549</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3402,38 +3576,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="C83" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="D83" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="E83" t="n">
-        <v>29.26</v>
+        <v>29.7</v>
       </c>
       <c r="F83" t="n">
-        <v>4471.8239</v>
+        <v>4000</v>
       </c>
       <c r="G83" t="n">
-        <v>-621028.502778785</v>
+        <v>-630418.4318930549</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3444,22 +3612,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.16</v>
+        <v>29.7</v>
       </c>
       <c r="C84" t="n">
-        <v>29.16</v>
+        <v>29.7</v>
       </c>
       <c r="D84" t="n">
-        <v>29.16</v>
+        <v>29.7</v>
       </c>
       <c r="E84" t="n">
-        <v>29.16</v>
+        <v>29.7</v>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>3132.688</v>
       </c>
       <c r="G84" t="n">
-        <v>-623028.502778785</v>
+        <v>-630418.4318930549</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3468,14 +3636,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3486,38 +3648,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.19</v>
+        <v>29.8</v>
       </c>
       <c r="C85" t="n">
-        <v>29.19</v>
+        <v>29.8</v>
       </c>
       <c r="D85" t="n">
-        <v>29.19</v>
+        <v>29.8</v>
       </c>
       <c r="E85" t="n">
-        <v>29.19</v>
+        <v>29.8</v>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="G85" t="n">
-        <v>-622028.502778785</v>
+        <v>-605418.4318930549</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3528,40 +3684,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.19</v>
+        <v>29.94</v>
       </c>
       <c r="C86" t="n">
-        <v>29.19</v>
+        <v>29.94</v>
       </c>
       <c r="D86" t="n">
-        <v>29.19</v>
+        <v>29.94</v>
       </c>
       <c r="E86" t="n">
-        <v>29.19</v>
+        <v>29.94</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>3331.6841</v>
       </c>
       <c r="G86" t="n">
-        <v>-622028.502778785</v>
+        <v>-602086.7477930549</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="K86" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3572,40 +3720,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.46</v>
+        <v>29.81</v>
       </c>
       <c r="C87" t="n">
-        <v>29.46</v>
+        <v>29.81</v>
       </c>
       <c r="D87" t="n">
-        <v>29.46</v>
+        <v>29.81</v>
       </c>
       <c r="E87" t="n">
-        <v>29.46</v>
+        <v>29.81</v>
       </c>
       <c r="F87" t="n">
-        <v>17</v>
+        <v>12543.1643</v>
       </c>
       <c r="G87" t="n">
-        <v>-622011.502778785</v>
+        <v>-614629.9120930549</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="K87" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3616,38 +3756,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.39</v>
+        <v>29.71</v>
       </c>
       <c r="C88" t="n">
-        <v>29.39</v>
+        <v>29.7</v>
       </c>
       <c r="D88" t="n">
-        <v>29.39</v>
+        <v>29.71</v>
       </c>
       <c r="E88" t="n">
-        <v>29.39</v>
+        <v>29.7</v>
       </c>
       <c r="F88" t="n">
-        <v>456699.2253</v>
+        <v>10771.7009</v>
       </c>
       <c r="G88" t="n">
-        <v>-1078710.728078785</v>
+        <v>-625401.6129930549</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3658,38 +3792,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.46</v>
+        <v>29.78</v>
       </c>
       <c r="C89" t="n">
-        <v>29.46</v>
+        <v>29.78</v>
       </c>
       <c r="D89" t="n">
-        <v>29.46</v>
+        <v>29.78</v>
       </c>
       <c r="E89" t="n">
-        <v>29.46</v>
+        <v>29.78</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>12662.8177</v>
       </c>
       <c r="G89" t="n">
-        <v>-1078610.728078785</v>
+        <v>-612738.7952930549</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3700,38 +3828,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.29</v>
+        <v>29.47</v>
       </c>
       <c r="C90" t="n">
-        <v>29.29</v>
+        <v>29.47</v>
       </c>
       <c r="D90" t="n">
-        <v>29.29</v>
+        <v>29.47</v>
       </c>
       <c r="E90" t="n">
-        <v>29.29</v>
+        <v>29.47</v>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>773.9645</v>
       </c>
       <c r="G90" t="n">
-        <v>-1079110.728078785</v>
+        <v>-613512.7597930549</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3742,22 +3864,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.23</v>
+        <v>29.58</v>
       </c>
       <c r="C91" t="n">
-        <v>29.23</v>
+        <v>29.59</v>
       </c>
       <c r="D91" t="n">
-        <v>29.23</v>
+        <v>29.59</v>
       </c>
       <c r="E91" t="n">
-        <v>29.23</v>
+        <v>29.58</v>
       </c>
       <c r="F91" t="n">
-        <v>4984</v>
+        <v>38400</v>
       </c>
       <c r="G91" t="n">
-        <v>-1084094.728078785</v>
+        <v>-575112.7597930549</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3766,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +3900,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.44</v>
+        <v>29.77</v>
       </c>
       <c r="C92" t="n">
-        <v>29.45</v>
+        <v>29.77</v>
       </c>
       <c r="D92" t="n">
-        <v>29.45</v>
+        <v>29.77</v>
       </c>
       <c r="E92" t="n">
-        <v>29.44</v>
+        <v>29.77</v>
       </c>
       <c r="F92" t="n">
-        <v>69.99490200782461</v>
+        <v>1578.2316</v>
       </c>
       <c r="G92" t="n">
-        <v>-1084024.733176777</v>
+        <v>-573534.5281930548</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3808,14 +3924,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3826,38 +3936,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.45</v>
+        <v>29.6</v>
       </c>
       <c r="C93" t="n">
-        <v>29.45</v>
+        <v>29.6</v>
       </c>
       <c r="D93" t="n">
-        <v>29.45</v>
+        <v>29.6</v>
       </c>
       <c r="E93" t="n">
-        <v>29.45</v>
+        <v>29.6</v>
       </c>
       <c r="F93" t="n">
-        <v>7445.2236</v>
+        <v>4303.8218</v>
       </c>
       <c r="G93" t="n">
-        <v>-1084024.733176777</v>
+        <v>-577838.3499930549</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3868,38 +3972,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="C94" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="D94" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="E94" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>2329.2511</v>
       </c>
       <c r="G94" t="n">
-        <v>-1083924.733176777</v>
+        <v>-580167.6010930549</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3910,22 +4008,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="C95" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="D95" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="E95" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="F95" t="n">
-        <v>3738</v>
+        <v>15264.1633</v>
       </c>
       <c r="G95" t="n">
-        <v>-1087662.733176777</v>
+        <v>-580167.6010930549</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3934,14 +4032,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3952,22 +4044,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.21</v>
+        <v>29.56</v>
       </c>
       <c r="C96" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="D96" t="n">
-        <v>29.21</v>
+        <v>29.56</v>
       </c>
       <c r="E96" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="F96" t="n">
-        <v>40906.9311</v>
+        <v>23700</v>
       </c>
       <c r="G96" t="n">
-        <v>-1128569.664276777</v>
+        <v>-580167.6010930549</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3976,14 +4068,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3994,22 +4080,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="C97" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="D97" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="E97" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="F97" t="n">
-        <v>51943.8998</v>
+        <v>36.5904</v>
       </c>
       <c r="G97" t="n">
-        <v>-1128569.664276777</v>
+        <v>-580167.6010930549</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4018,14 +4104,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +4116,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="C98" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="D98" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="E98" t="n">
-        <v>29.46</v>
+        <v>29.56</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>213.4096</v>
       </c>
       <c r="G98" t="n">
-        <v>-1128469.664276777</v>
+        <v>-580167.6010930549</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4060,14 +4140,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4078,22 +4152,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.2</v>
+        <v>29.66</v>
       </c>
       <c r="C99" t="n">
-        <v>29.2</v>
+        <v>29.66</v>
       </c>
       <c r="D99" t="n">
-        <v>29.2</v>
+        <v>29.66</v>
       </c>
       <c r="E99" t="n">
-        <v>29.2</v>
+        <v>29.66</v>
       </c>
       <c r="F99" t="n">
-        <v>37565.8904</v>
+        <v>33.9851652056642</v>
       </c>
       <c r="G99" t="n">
-        <v>-1166035.554676777</v>
+        <v>-580133.6159278492</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4102,14 +4176,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4120,38 +4188,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29.22</v>
+        <v>29.56</v>
       </c>
       <c r="C100" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="D100" t="n">
-        <v>29.22</v>
+        <v>29.56</v>
       </c>
       <c r="E100" t="n">
-        <v>29.2</v>
+        <v>29.56</v>
       </c>
       <c r="F100" t="n">
-        <v>20000</v>
+        <v>997.4583</v>
       </c>
       <c r="G100" t="n">
-        <v>-1166035.554676777</v>
+        <v>-581131.0742278493</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4162,38 +4224,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29.3</v>
+        <v>29.46</v>
       </c>
       <c r="C101" t="n">
-        <v>29.3</v>
+        <v>29.46</v>
       </c>
       <c r="D101" t="n">
-        <v>29.3</v>
+        <v>29.46</v>
       </c>
       <c r="E101" t="n">
-        <v>29.3</v>
+        <v>29.46</v>
       </c>
       <c r="F101" t="n">
-        <v>35.01706484641638</v>
+        <v>8860.291999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-1166000.537611931</v>
+        <v>-589991.3662278493</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +4260,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="C102" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="D102" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="E102" t="n">
-        <v>29.3</v>
+        <v>29.56</v>
       </c>
       <c r="F102" t="n">
-        <v>9963.0646</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>-1166000.537611931</v>
+        <v>-589974.3662278493</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4228,14 +4284,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4246,38 +4296,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>29.39</v>
+        <v>29.32</v>
       </c>
       <c r="C103" t="n">
-        <v>29.41</v>
+        <v>29.32</v>
       </c>
       <c r="D103" t="n">
-        <v>29.41</v>
+        <v>29.32</v>
       </c>
       <c r="E103" t="n">
-        <v>29.39</v>
+        <v>29.32</v>
       </c>
       <c r="F103" t="n">
-        <v>116216.3213</v>
+        <v>8081.7973</v>
       </c>
       <c r="G103" t="n">
-        <v>-1049784.216311931</v>
+        <v>-598056.1635278492</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +4332,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="C104" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="D104" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="E104" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="F104" t="n">
-        <v>5513.1485</v>
+        <v>103195.3886</v>
       </c>
       <c r="G104" t="n">
-        <v>-1044271.067811931</v>
+        <v>-598056.1635278492</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4312,14 +4356,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4330,38 +4368,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="C105" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="D105" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="E105" t="n">
-        <v>29.47</v>
+        <v>29.32</v>
       </c>
       <c r="F105" t="n">
-        <v>4486.8515</v>
+        <v>150457.569</v>
       </c>
       <c r="G105" t="n">
-        <v>-1044271.067811931</v>
+        <v>-598056.1635278492</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4372,38 +4404,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.73</v>
+        <v>29.32</v>
       </c>
       <c r="C106" t="n">
-        <v>29.77</v>
+        <v>29.32</v>
       </c>
       <c r="D106" t="n">
-        <v>29.77</v>
+        <v>29.32</v>
       </c>
       <c r="E106" t="n">
-        <v>29.73</v>
+        <v>29.32</v>
       </c>
       <c r="F106" t="n">
-        <v>438.0086409136715</v>
+        <v>9510</v>
       </c>
       <c r="G106" t="n">
-        <v>-1043833.059171017</v>
+        <v>-598056.1635278492</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4414,38 +4440,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29.77</v>
+        <v>29.31</v>
       </c>
       <c r="C107" t="n">
-        <v>29.8</v>
+        <v>29.31</v>
       </c>
       <c r="D107" t="n">
-        <v>29.8</v>
+        <v>29.31</v>
       </c>
       <c r="E107" t="n">
-        <v>29.77</v>
+        <v>29.31</v>
       </c>
       <c r="F107" t="n">
-        <v>2497.010165462168</v>
+        <v>4093.561</v>
       </c>
       <c r="G107" t="n">
-        <v>-1041336.049005555</v>
+        <v>-602149.7245278492</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4456,38 +4476,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>29.51</v>
+        <v>29.31</v>
       </c>
       <c r="C108" t="n">
-        <v>29.5</v>
+        <v>29.48</v>
       </c>
       <c r="D108" t="n">
-        <v>29.79</v>
+        <v>29.48</v>
       </c>
       <c r="E108" t="n">
-        <v>29.5</v>
+        <v>29.31</v>
       </c>
       <c r="F108" t="n">
-        <v>18052.00469956361</v>
+        <v>8451.8688</v>
       </c>
       <c r="G108" t="n">
-        <v>-1059388.053705119</v>
+        <v>-593697.8557278492</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4498,38 +4512,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>29.8</v>
+        <v>29.26</v>
       </c>
       <c r="C109" t="n">
-        <v>29.8</v>
+        <v>29.26</v>
       </c>
       <c r="D109" t="n">
-        <v>29.8</v>
+        <v>29.26</v>
       </c>
       <c r="E109" t="n">
-        <v>29.5</v>
+        <v>29.26</v>
       </c>
       <c r="F109" t="n">
-        <v>85.98657718120805</v>
+        <v>1425.0888</v>
       </c>
       <c r="G109" t="n">
-        <v>-1059302.067127937</v>
+        <v>-595122.9445278492</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4540,22 +4548,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>29.69</v>
+        <v>29.29</v>
       </c>
       <c r="C110" t="n">
-        <v>29.69</v>
+        <v>29.39</v>
       </c>
       <c r="D110" t="n">
-        <v>29.69</v>
+        <v>29.39</v>
       </c>
       <c r="E110" t="n">
-        <v>29.69</v>
+        <v>29.29</v>
       </c>
       <c r="F110" t="n">
-        <v>2700.8593</v>
+        <v>1426.012249064308</v>
       </c>
       <c r="G110" t="n">
-        <v>-1062002.926427937</v>
+        <v>-593696.9322787849</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4564,14 +4572,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4582,22 +4584,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>29.69</v>
+        <v>29.26</v>
       </c>
       <c r="C111" t="n">
-        <v>29.78</v>
+        <v>29.26</v>
       </c>
       <c r="D111" t="n">
-        <v>29.78</v>
+        <v>29.26</v>
       </c>
       <c r="E111" t="n">
-        <v>29.69</v>
+        <v>29.2</v>
       </c>
       <c r="F111" t="n">
-        <v>2198.443224768002</v>
+        <v>27331.5705</v>
       </c>
       <c r="G111" t="n">
-        <v>-1059804.483203169</v>
+        <v>-621028.502778785</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4606,14 +4608,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4624,22 +4620,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.61</v>
+        <v>29.26</v>
       </c>
       <c r="C112" t="n">
-        <v>29.61</v>
+        <v>29.26</v>
       </c>
       <c r="D112" t="n">
-        <v>29.61</v>
+        <v>29.26</v>
       </c>
       <c r="E112" t="n">
-        <v>29.61</v>
+        <v>29.26</v>
       </c>
       <c r="F112" t="n">
-        <v>30769.9225</v>
+        <v>4471.8239</v>
       </c>
       <c r="G112" t="n">
-        <v>-1090574.40570317</v>
+        <v>-621028.502778785</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4648,14 +4644,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4666,22 +4656,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.69</v>
+        <v>29.16</v>
       </c>
       <c r="C113" t="n">
-        <v>29.78</v>
+        <v>29.16</v>
       </c>
       <c r="D113" t="n">
-        <v>29.78</v>
+        <v>29.16</v>
       </c>
       <c r="E113" t="n">
-        <v>29.69</v>
+        <v>29.16</v>
       </c>
       <c r="F113" t="n">
-        <v>23559.9999</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="n">
-        <v>-1067014.40580317</v>
+        <v>-623028.502778785</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4690,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4708,22 +4692,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29.7</v>
+        <v>29.19</v>
       </c>
       <c r="C114" t="n">
-        <v>29.78</v>
+        <v>29.19</v>
       </c>
       <c r="D114" t="n">
-        <v>29.78</v>
+        <v>29.19</v>
       </c>
       <c r="E114" t="n">
-        <v>29.7</v>
+        <v>29.19</v>
       </c>
       <c r="F114" t="n">
-        <v>106831.0931</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="n">
-        <v>-1067014.40580317</v>
+        <v>-622028.502778785</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4732,14 +4716,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4750,22 +4728,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>29.69</v>
+        <v>29.19</v>
       </c>
       <c r="C115" t="n">
-        <v>29.69</v>
+        <v>29.19</v>
       </c>
       <c r="D115" t="n">
-        <v>29.69</v>
+        <v>29.19</v>
       </c>
       <c r="E115" t="n">
-        <v>29.69</v>
+        <v>29.19</v>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>-1067514.40580317</v>
+        <v>-622028.502778785</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4774,14 +4752,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4792,22 +4764,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.69</v>
+        <v>29.46</v>
       </c>
       <c r="C116" t="n">
-        <v>29.69</v>
+        <v>29.46</v>
       </c>
       <c r="D116" t="n">
-        <v>29.69</v>
+        <v>29.46</v>
       </c>
       <c r="E116" t="n">
-        <v>29.69</v>
+        <v>29.46</v>
       </c>
       <c r="F116" t="n">
-        <v>4092.9302</v>
+        <v>17</v>
       </c>
       <c r="G116" t="n">
-        <v>-1067514.40580317</v>
+        <v>-622011.502778785</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4816,14 +4788,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4834,38 +4800,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>29.73</v>
+        <v>29.39</v>
       </c>
       <c r="C117" t="n">
-        <v>29.73</v>
+        <v>29.39</v>
       </c>
       <c r="D117" t="n">
-        <v>29.73</v>
+        <v>29.39</v>
       </c>
       <c r="E117" t="n">
-        <v>29.73</v>
+        <v>29.39</v>
       </c>
       <c r="F117" t="n">
-        <v>5522.0572</v>
+        <v>456699.2253</v>
       </c>
       <c r="G117" t="n">
-        <v>-1061992.34860317</v>
+        <v>-1078710.728078785</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4876,38 +4836,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>29.73</v>
+        <v>29.46</v>
       </c>
       <c r="C118" t="n">
-        <v>29.73</v>
+        <v>29.46</v>
       </c>
       <c r="D118" t="n">
-        <v>29.73</v>
+        <v>29.46</v>
       </c>
       <c r="E118" t="n">
-        <v>29.73</v>
+        <v>29.46</v>
       </c>
       <c r="F118" t="n">
-        <v>957.5</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>-1061992.34860317</v>
+        <v>-1078610.728078785</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4918,22 +4872,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>29.73</v>
+        <v>29.29</v>
       </c>
       <c r="C119" t="n">
-        <v>29.73</v>
+        <v>29.29</v>
       </c>
       <c r="D119" t="n">
-        <v>29.73</v>
+        <v>29.29</v>
       </c>
       <c r="E119" t="n">
-        <v>29.73</v>
+        <v>29.29</v>
       </c>
       <c r="F119" t="n">
-        <v>59.2888</v>
+        <v>500</v>
       </c>
       <c r="G119" t="n">
-        <v>-1061992.34860317</v>
+        <v>-1079110.728078785</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4942,14 +4896,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4960,22 +4908,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>29.72</v>
+        <v>29.23</v>
       </c>
       <c r="C120" t="n">
-        <v>29.72</v>
+        <v>29.23</v>
       </c>
       <c r="D120" t="n">
-        <v>29.72</v>
+        <v>29.23</v>
       </c>
       <c r="E120" t="n">
-        <v>29.72</v>
+        <v>29.23</v>
       </c>
       <c r="F120" t="n">
-        <v>4903</v>
+        <v>4984</v>
       </c>
       <c r="G120" t="n">
-        <v>-1066895.34860317</v>
+        <v>-1084094.728078785</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4984,14 +4932,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5002,22 +4944,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>29.72</v>
+        <v>29.44</v>
       </c>
       <c r="C121" t="n">
-        <v>29.72</v>
+        <v>29.45</v>
       </c>
       <c r="D121" t="n">
-        <v>29.72</v>
+        <v>29.45</v>
       </c>
       <c r="E121" t="n">
-        <v>29.72</v>
+        <v>29.44</v>
       </c>
       <c r="F121" t="n">
-        <v>1634</v>
+        <v>69.99490200782461</v>
       </c>
       <c r="G121" t="n">
-        <v>-1066895.34860317</v>
+        <v>-1084024.733176777</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5026,14 +4968,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5044,22 +4980,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>29.63</v>
+        <v>29.45</v>
       </c>
       <c r="C122" t="n">
-        <v>29.63</v>
+        <v>29.45</v>
       </c>
       <c r="D122" t="n">
-        <v>29.63</v>
+        <v>29.45</v>
       </c>
       <c r="E122" t="n">
-        <v>29.63</v>
+        <v>29.45</v>
       </c>
       <c r="F122" t="n">
-        <v>11810</v>
+        <v>7445.2236</v>
       </c>
       <c r="G122" t="n">
-        <v>-1078705.34860317</v>
+        <v>-1084024.733176777</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5068,14 +5004,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5086,42 +5016,1080 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="D123" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="E123" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1083924.733176777</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3738</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1087662.733176777</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="E125" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>40906.9311</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1128569.664276777</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>51943.8998</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1128569.664276777</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="C127" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="D127" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="E127" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1128469.664276777</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>37565.8904</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1166035.554676777</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="E129" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1166035.554676777</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>35.01706484641638</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1166000.537611931</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9963.0646</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1166000.537611931</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="D132" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="F132" t="n">
+        <v>116216.3213</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1049784.216311931</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="D133" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="E133" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5513.1485</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1044271.067811931</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="C134" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="D134" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="E134" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4486.8515</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1044271.067811931</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="C135" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D135" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="E135" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="F135" t="n">
+        <v>438.0086409136715</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1043833.059171017</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2497.010165462168</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1041336.049005555</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="C137" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18052.00469956361</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1059388.053705119</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>85.98657718120805</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1059302.067127937</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="C139" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D139" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="E139" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2700.8593</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1062002.926427937</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="C140" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D140" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="E140" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2198.443224768002</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1059804.483203169</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="C141" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="D141" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>30769.9225</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1090574.40570317</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="C142" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D142" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="E142" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F142" t="n">
+        <v>23559.9999</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1067014.40580317</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>29.7</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C143" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D143" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="E143" t="n">
         <v>29.7</v>
       </c>
-      <c r="D123" t="n">
+      <c r="F143" t="n">
+        <v>106831.0931</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1067014.40580317</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D144" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="E144" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F144" t="n">
+        <v>500</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1067514.40580317</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="C145" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D145" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="E145" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4092.9302</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1067514.40580317</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="C146" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D146" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="E146" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5522.0572</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1061992.34860317</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="C147" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D147" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="E147" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="F147" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1061992.34860317</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="C148" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D148" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="E148" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="F148" t="n">
+        <v>59.2888</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1061992.34860317</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="C149" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D149" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="E149" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4903</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1066895.34860317</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="C150" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D150" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="E150" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1634</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1066895.34860317</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="C151" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="D151" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="E151" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11810</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1078705.34860317</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>29.7</v>
       </c>
-      <c r="E123" t="n">
+      <c r="C152" t="n">
         <v>29.7</v>
       </c>
-      <c r="F123" t="n">
+      <c r="D152" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F152" t="n">
         <v>20080</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G152" t="n">
         <v>-1058625.34860317</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,1226 +1606,1178 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>29.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9189.106</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-809430.445793055</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13256.0506</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-809430.445793055</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7011.845</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-809430.445793055</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C38" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D38" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E38" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F38" t="n">
-        <v>9189.106</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C41" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D41" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="E41" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3276.0226</v>
+      </c>
+      <c r="G41" t="n">
         <v>-809430.445793055</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="J41" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D39" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E39" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F39" t="n">
-        <v>13256.0506</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C42" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D42" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="E42" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F42" t="n">
+        <v>96125.8435</v>
+      </c>
+      <c r="G42" t="n">
         <v>-809430.445793055</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="J42" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C40" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D40" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F40" t="n">
-        <v>7011.845</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>29</v>
+      </c>
+      <c r="C43" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29</v>
+      </c>
+      <c r="E43" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3282.0659</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-812712.511693055</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="J43" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C41" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D41" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E41" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3276.0226</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>29</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29</v>
+      </c>
+      <c r="D44" t="n">
+        <v>29</v>
+      </c>
+      <c r="E44" t="n">
+        <v>29</v>
+      </c>
+      <c r="F44" t="n">
+        <v>505.9998</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-812206.5118930551</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C42" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D42" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E42" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F42" t="n">
-        <v>96125.8435</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="C45" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D45" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="E45" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15599.6018</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-827806.113693055</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29</v>
+      </c>
+      <c r="J45" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>29</v>
-      </c>
-      <c r="C43" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="D43" t="n">
-        <v>29</v>
-      </c>
-      <c r="E43" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3282.0659</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-812712.511693055</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19392.5089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-847198.622593055</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="J46" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>29</v>
-      </c>
-      <c r="C44" t="n">
-        <v>29</v>
-      </c>
-      <c r="D44" t="n">
-        <v>29</v>
-      </c>
-      <c r="E44" t="n">
-        <v>29</v>
-      </c>
-      <c r="F44" t="n">
-        <v>505.9998</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-812206.5118930551</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="C47" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="D47" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="E47" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="F47" t="n">
+        <v>61167.3566</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-908365.9791930551</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="C45" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="D45" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="E45" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="F45" t="n">
-        <v>15599.6018</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-827806.113693055</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-908315.9791930551</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C49" t="n">
         <v>28.8</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D49" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E49" t="n">
         <v>28.8</v>
       </c>
-      <c r="D46" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>19392.5089</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-847198.622593055</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="F49" t="n">
+        <v>85190.95110000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-993506.930293055</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="C47" t="n">
-        <v>28.73</v>
-      </c>
-      <c r="D47" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="E47" t="n">
-        <v>28.73</v>
-      </c>
-      <c r="F47" t="n">
-        <v>61167.3566</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-908365.9791930551</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>28.8</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="C50" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>26570.7203</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-993506.930293055</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F48" t="n">
-        <v>50</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-908315.9791930551</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>28.73</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7980.34</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-993506.930293055</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>29</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" t="n">
+        <v>25.0208</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-993481.909493055</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
         <v>28.8</v>
       </c>
-      <c r="D49" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>85190.95110000001</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-993506.930293055</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="J52" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F50" t="n">
-        <v>26570.7203</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-993506.930293055</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>77954.3789</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1071436.288393055</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C51" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E51" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>7980.34</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-993506.930293055</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>120915.3148</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1071436.288393055</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>29</v>
-      </c>
-      <c r="C52" t="n">
-        <v>29</v>
-      </c>
-      <c r="D52" t="n">
-        <v>29</v>
-      </c>
-      <c r="E52" t="n">
-        <v>29</v>
-      </c>
-      <c r="F52" t="n">
-        <v>25.0208</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-993481.909493055</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="F55" t="n">
+        <v>44616.5066</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1026819.781793055</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D53" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>77954.3789</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1071436.288393055</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>29</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>50</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1026769.781793055</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>120915.3148</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1071436.288393055</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>18</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1026751.781793055</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="D55" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="F55" t="n">
-        <v>44616.5066</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1026819.781793055</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12614.1185</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1026751.781793055</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E56" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>50</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1026769.781793055</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7027.0559</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1026751.781793055</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="D60" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1831.7906</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1024919.991193055</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
         <v>29.3</v>
       </c>
-      <c r="C57" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E57" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F57" t="n">
-        <v>18</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1026751.781793055</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="J60" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>12614.1185</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1026751.781793055</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="D61" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="E61" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="F61" t="n">
+        <v>831.0427</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1024088.948493055</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>7027.0559</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1026751.781793055</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30318.006</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-993770.9424930549</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="C63" t="n">
         <v>29.5</v>
       </c>
-      <c r="C60" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="D63" t="n">
         <v>29.5</v>
       </c>
-      <c r="E60" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1831.7906</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1024919.991193055</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="E63" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3952.7755</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-993770.9424930549</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="C61" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="D61" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="E61" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="F61" t="n">
-        <v>831.0427</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1024088.948493055</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9260.4218</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-993770.9424930549</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>29.5</v>
       </c>
-      <c r="D62" t="n">
+      <c r="C65" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E65" t="n">
         <v>29.5</v>
       </c>
-      <c r="E62" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F62" t="n">
-        <v>30318.006</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-993770.9424930549</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="F65" t="n">
+        <v>35725.9933</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-958044.9491930549</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>29.42</v>
-      </c>
-      <c r="C63" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D63" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>29.42</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3952.7755</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-993770.9424930549</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="C66" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="E66" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="F66" t="n">
+        <v>18641.1744</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-976686.1235930549</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F64" t="n">
-        <v>9260.4218</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-993770.9424930549</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D65" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F65" t="n">
-        <v>35725.9933</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-958044.9491930549</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="C66" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="D66" t="n">
-        <v>29.74</v>
-      </c>
-      <c r="E66" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="F66" t="n">
-        <v>18641.1744</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-976686.1235930549</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2960,22 +2802,21 @@
         <v>-602967.9204930549</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1.02188728024819</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3000,22 +2841,15 @@
         <v>-655322.0485930549</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3040,22 +2874,15 @@
         <v>-649822.0485930549</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3080,22 +2907,15 @@
         <v>-608409.5836930549</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3120,22 +2940,15 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3160,22 +2973,15 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3200,22 +3006,15 @@
         <v>-598469.5836930549</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3240,22 +3039,15 @@
         <v>-600408.5836930549</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3280,22 +3072,15 @@
         <v>-602297.9330930548</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3320,22 +3105,15 @@
         <v>-599497.9330930548</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3360,22 +3138,15 @@
         <v>-614897.2524930548</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3402,20 +3173,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3442,20 +3206,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3482,20 +3239,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3522,18 +3272,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L81" t="n">
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3560,16 +3305,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3594,18 +3336,15 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3630,18 +3369,15 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3668,16 +3404,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3704,16 +3437,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3740,16 +3470,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3776,16 +3503,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3812,16 +3536,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3848,16 +3569,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3884,16 +3602,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3920,16 +3635,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3956,16 +3668,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3990,18 +3699,15 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4028,16 +3734,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4064,16 +3767,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4100,16 +3800,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4136,16 +3833,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4172,16 +3866,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4206,18 +3897,15 @@
         <v>-581131.0742278493</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4242,18 +3930,15 @@
         <v>-589991.3662278493</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4278,18 +3963,15 @@
         <v>-589974.3662278493</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4316,16 +3998,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4350,18 +4029,15 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4386,18 +4062,15 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4422,18 +4095,15 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4458,18 +4128,15 @@
         <v>-602149.7245278492</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4494,18 +4161,15 @@
         <v>-593697.8557278492</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4530,18 +4194,15 @@
         <v>-595122.9445278492</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4566,18 +4227,15 @@
         <v>-593696.9322787849</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4604,16 +4262,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4638,18 +4293,15 @@
         <v>-621028.502778785</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4674,18 +4326,15 @@
         <v>-623028.502778785</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4710,18 +4359,15 @@
         <v>-622028.502778785</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4748,16 +4394,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4782,18 +4425,15 @@
         <v>-622011.502778785</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4818,18 +4458,15 @@
         <v>-1078710.728078785</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4856,16 +4493,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4892,16 +4526,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4928,16 +4559,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4964,16 +4592,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5000,16 +4625,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5036,16 +4658,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5072,16 +4691,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5108,16 +4724,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5144,16 +4757,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5180,16 +4790,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5216,16 +4823,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5252,16 +4856,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5288,16 +4889,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5324,16 +4922,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5360,16 +4955,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5396,16 +4988,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5432,16 +5021,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5468,16 +5054,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5504,16 +5087,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5538,18 +5118,15 @@
         <v>-1059388.053705119</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5576,16 +5153,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5612,16 +5186,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5648,16 +5219,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5684,16 +5252,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5720,16 +5285,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5756,16 +5318,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5792,16 +5351,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5828,16 +5384,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5864,16 +5417,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5900,16 +5450,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5936,16 +5483,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5972,16 +5516,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6008,16 +5549,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6044,16 +5582,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6080,18 +5615,15 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-738670.628893055</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-740194.393693055</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-740194.393693055</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-740194.393693055</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-748096.173793055</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-748096.173793055</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1672,14 +1672,10 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="J39" t="n">
-        <v>29.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1712,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1748,19 +1738,11 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="J41" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1789,19 +1771,11 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="J42" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1830,19 +1804,11 @@
         <v>-812712.511693055</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="J43" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1871,19 +1837,11 @@
         <v>-812206.5118930551</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="J44" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1912,19 +1870,11 @@
         <v>-827806.113693055</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>29</v>
-      </c>
-      <c r="J45" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1953,19 +1903,15 @@
         <v>-847198.622593055</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>28.81</v>
       </c>
       <c r="J46" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.81</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1994,17 +1940,17 @@
         <v>-908365.9791930551</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>28.8</v>
       </c>
       <c r="J47" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2035,13 +1981,13 @@
         <v>-908315.9791930551</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>28.73</v>
       </c>
       <c r="J48" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2076,13 +2022,13 @@
         <v>-993506.930293055</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>28.9</v>
       </c>
       <c r="J49" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2117,13 +2063,13 @@
         <v>-993506.930293055</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>28.8</v>
       </c>
       <c r="J50" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2158,13 +2104,13 @@
         <v>-993506.930293055</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>28.8</v>
       </c>
       <c r="J51" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2199,13 +2145,13 @@
         <v>-993481.909493055</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>28.8</v>
       </c>
       <c r="J52" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2240,13 +2186,13 @@
         <v>-1071436.288393055</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>29</v>
       </c>
       <c r="J53" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2281,13 +2227,13 @@
         <v>-1071436.288393055</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>28.9</v>
       </c>
       <c r="J54" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2322,13 +2268,13 @@
         <v>-1026819.781793055</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>28.9</v>
       </c>
       <c r="J55" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2363,13 +2309,13 @@
         <v>-1026769.781793055</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>28.98</v>
       </c>
       <c r="J56" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2404,13 +2350,13 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>29.1</v>
       </c>
       <c r="J57" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2445,13 +2391,13 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>29.3</v>
       </c>
       <c r="J58" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2486,13 +2432,11 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2527,13 +2471,13 @@
         <v>-1024919.991193055</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>29.3</v>
       </c>
       <c r="J60" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2572,7 +2516,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2611,7 +2555,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2650,7 +2594,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2689,7 +2633,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2728,7 +2672,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2767,7 +2711,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2802,19 +2746,19 @@
         <v>-602967.9204930549</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>29.01</v>
+        <v>28.81</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.02188728024819</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2841,11 +2785,17 @@
         <v>-655322.0485930549</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2874,11 +2824,17 @@
         <v>-649822.0485930549</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2907,11 +2863,17 @@
         <v>-608409.5836930549</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2902,17 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2941,17 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2980,17 @@
         <v>-598469.5836930549</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3039,11 +3019,17 @@
         <v>-600408.5836930549</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3072,11 +3058,17 @@
         <v>-602297.9330930548</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3105,11 +3097,17 @@
         <v>-599497.9330930548</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3138,11 +3136,17 @@
         <v>-614897.2524930548</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3174,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3207,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3240,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3273,8 +3295,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3306,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3336,11 +3370,17 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3369,11 +3409,17 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3405,8 +3451,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3438,8 +3490,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3471,8 +3529,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3504,8 +3568,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3607,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3570,8 +3646,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3603,8 +3685,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3636,8 +3724,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3669,8 +3763,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3699,11 +3799,17 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3735,8 +3841,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3768,8 +3880,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3801,8 +3919,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3834,8 +3958,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3867,8 +3997,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +4033,17 @@
         <v>-581131.0742278493</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3930,11 +4072,17 @@
         <v>-589991.3662278493</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3963,11 +4111,17 @@
         <v>-589974.3662278493</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3999,8 +4153,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4029,11 +4189,17 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +4228,17 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +4267,17 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4128,11 +4306,17 @@
         <v>-602149.7245278492</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4161,11 +4345,17 @@
         <v>-593697.8557278492</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4194,11 +4384,17 @@
         <v>-595122.9445278492</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +4423,17 @@
         <v>-593696.9322787849</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4263,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4293,11 +4501,17 @@
         <v>-621028.502778785</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4326,11 +4540,17 @@
         <v>-623028.502778785</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4359,11 +4579,17 @@
         <v>-622028.502778785</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4395,8 +4621,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4425,11 +4657,17 @@
         <v>-622011.502778785</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4458,11 +4696,17 @@
         <v>-1078710.728078785</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4494,8 +4738,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4527,8 +4777,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4560,8 +4816,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4593,8 +4855,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4626,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4933,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4692,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4725,8 +5011,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4758,8 +5050,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4791,8 +5089,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4824,8 +5128,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4857,8 +5167,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4890,8 +5206,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4923,8 +5245,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4956,8 +5284,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4989,8 +5323,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5022,8 +5362,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5055,8 +5401,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5088,8 +5440,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +5476,17 @@
         <v>-1059388.053705119</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5154,8 +5518,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5187,8 +5557,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5220,8 +5596,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5635,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5286,8 +5674,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5319,8 +5713,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5352,8 +5752,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5385,8 +5791,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5418,8 +5830,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5451,8 +5869,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5484,8 +5908,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5517,8 +5947,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5550,8 +5986,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5583,8 +6025,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5616,14 +6064,20 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-738670.628893055</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-740194.393693055</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-740194.393693055</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-740194.393693055</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-748096.173793055</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-748096.173793055</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1903,14 +1903,10 @@
         <v>-847198.622593055</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="J46" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1945,9 +1941,7 @@
       <c r="I47" t="n">
         <v>28.8</v>
       </c>
-      <c r="J47" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1986,9 +1980,7 @@
       <c r="I48" t="n">
         <v>28.73</v>
       </c>
-      <c r="J48" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,9 +2019,7 @@
       <c r="I49" t="n">
         <v>28.9</v>
       </c>
-      <c r="J49" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2063,14 +2053,10 @@
         <v>-993506.930293055</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,9 +2095,7 @@
       <c r="I51" t="n">
         <v>28.8</v>
       </c>
-      <c r="J51" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,9 +2134,7 @@
       <c r="I52" t="n">
         <v>28.8</v>
       </c>
-      <c r="J52" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2191,9 +2173,7 @@
       <c r="I53" t="n">
         <v>29</v>
       </c>
-      <c r="J53" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,14 +2207,10 @@
         <v>-1071436.288393055</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,14 +2244,10 @@
         <v>-1026819.781793055</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2309,14 +2281,10 @@
         <v>-1026769.781793055</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="J56" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,14 +2318,10 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2391,14 +2355,10 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,9 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,14 +2429,10 @@
         <v>-1024919.991193055</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2515,9 +2469,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2554,9 +2506,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,9 +2543,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2632,9 +2580,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,9 +2617,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,9 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2749,9 +2691,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2788,9 +2728,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,9 +2765,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,20 +2799,16 @@
         <v>-608409.5836930549</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>28.81</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2902,17 +2834,11 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2941,17 +2867,11 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2983,14 +2903,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3022,14 +2936,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +2969,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +3002,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3139,14 +3035,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3178,14 +3068,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +3101,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +3134,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3167,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3334,14 +3200,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3233,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3266,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3299,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3365,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3431,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3464,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3497,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3530,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3563,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3596,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3838,17 +3626,11 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3877,17 +3659,11 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3692,11 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3955,17 +3725,11 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3994,17 +3758,11 @@
         <v>-580133.6159278492</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4033,17 +3791,11 @@
         <v>-581131.0742278493</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3824,11 @@
         <v>-589991.3662278493</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3857,11 @@
         <v>-589974.3662278493</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4153,14 +3893,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4192,14 +3926,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4231,14 +3959,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4309,14 +4025,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +4058,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +4091,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4426,14 +4124,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4465,14 +4157,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +4190,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +4223,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4256,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4289,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4322,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4355,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4388,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4421,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4454,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4487,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4520,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4553,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +4586,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4619,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4652,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4685,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +4718,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +4751,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5206,14 +4784,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +4817,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4850,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5362,14 +4916,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5401,14 +4949,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +4982,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5479,14 +5015,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5518,14 +5048,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +5081,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5114,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5635,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +5180,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5713,14 +5213,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5752,14 +5246,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5791,14 +5279,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5830,14 +5312,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5869,14 +5345,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5908,14 +5378,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5947,14 +5411,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5986,14 +5444,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6025,14 +5477,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6064,20 +5510,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -2207,9 +2207,11 @@
         <v>-1071436.288393055</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2244,9 +2246,11 @@
         <v>-1026819.781793055</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2281,9 +2285,11 @@
         <v>-1026769.781793055</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>28.98</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2318,9 +2324,11 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2725,18 +2733,16 @@
         <v>-655322.0485930549</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2762,15 +2768,11 @@
         <v>-649822.0485930549</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2799,16 +2801,14 @@
         <v>-608409.5836930549</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2900,7 +2900,7 @@
         <v>-598469.5836930549</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
         <v>-600408.5836930549</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2966,7 +2966,7 @@
         <v>-602297.9330930548</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2999,7 +2999,7 @@
         <v>-599497.9330930548</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3032,7 +3032,7 @@
         <v>-614897.2524930548</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3065,7 +3065,7 @@
         <v>-626222.4318930549</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3098,7 +3098,7 @@
         <v>-626222.4318930549</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
         <v>-625722.4318930549</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3164,7 +3164,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3197,7 +3197,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3230,7 +3230,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3263,7 +3263,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         <v>-605418.4318930549</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
         <v>-602086.7477930549</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3362,7 +3362,7 @@
         <v>-614629.9120930549</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3395,7 +3395,7 @@
         <v>-625401.6129930549</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
         <v>-612738.7952930549</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3461,7 +3461,7 @@
         <v>-613512.7597930549</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3593,7 +3593,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3626,7 +3626,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3659,7 +3659,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3725,7 +3725,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3758,7 +3758,7 @@
         <v>-580133.6159278492</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3791,7 +3791,7 @@
         <v>-581131.0742278493</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3824,7 +3824,7 @@
         <v>-589991.3662278493</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3857,7 +3857,7 @@
         <v>-589974.3662278493</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest LAMB.xlsx
+++ b/BackTest/2020-01-12 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1991.0228</v>
       </c>
       <c r="G2" t="n">
-        <v>-738670.628893055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1523.7648</v>
       </c>
       <c r="G3" t="n">
-        <v>-740194.393693055</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>8789.099399999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-740194.393693055</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>24252.835</v>
       </c>
       <c r="G5" t="n">
-        <v>-740194.393693055</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>7901.7801</v>
       </c>
       <c r="G6" t="n">
-        <v>-748096.173793055</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>13037.5203</v>
       </c>
       <c r="G7" t="n">
-        <v>-748096.173793055</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2286.1646</v>
       </c>
       <c r="G8" t="n">
-        <v>-748096.173793055</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10103.51</v>
       </c>
       <c r="G9" t="n">
-        <v>-748096.173793055</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>12288.8469</v>
       </c>
       <c r="G10" t="n">
-        <v>-748096.173793055</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>12500</v>
       </c>
       <c r="G11" t="n">
-        <v>-748096.173793055</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4500</v>
       </c>
       <c r="G12" t="n">
-        <v>-752596.173793055</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>7229.2673</v>
       </c>
       <c r="G13" t="n">
-        <v>-752596.173793055</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>7500</v>
       </c>
       <c r="G14" t="n">
-        <v>-752596.173793055</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>-752596.173793055</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>4500</v>
       </c>
       <c r="G16" t="n">
-        <v>-757096.173793055</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>28066.0362</v>
       </c>
       <c r="G17" t="n">
-        <v>-757096.173793055</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1727.2909</v>
       </c>
       <c r="G18" t="n">
-        <v>-757096.173793055</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>10944.5456</v>
       </c>
       <c r="G20" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3054.5543</v>
       </c>
       <c r="G21" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3478.6398</v>
       </c>
       <c r="G22" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>678.6685</v>
       </c>
       <c r="G23" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2500</v>
       </c>
       <c r="G24" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1512.492</v>
       </c>
       <c r="G25" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>594.6244</v>
       </c>
       <c r="G26" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>797.0959</v>
       </c>
       <c r="G28" t="n">
-        <v>-757299.077893055</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10500</v>
       </c>
       <c r="G29" t="n">
-        <v>-757299.077893055</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3476.3015</v>
       </c>
       <c r="G30" t="n">
-        <v>-757299.077893055</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>448.4974</v>
       </c>
       <c r="G31" t="n">
-        <v>-757299.077893055</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>4672.2652</v>
       </c>
       <c r="G32" t="n">
-        <v>-757299.077893055</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>797.0959</v>
       </c>
       <c r="G33" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>7795.2224</v>
       </c>
       <c r="G34" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>598.4965999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-758096.173793055</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2900</v>
       </c>
       <c r="G36" t="n">
-        <v>-755196.173793055</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>54234.272</v>
       </c>
       <c r="G37" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>9189.106</v>
       </c>
       <c r="G38" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>13256.0506</v>
       </c>
       <c r="G39" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7011.845</v>
       </c>
       <c r="G40" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3276.0226</v>
       </c>
       <c r="G41" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>96125.8435</v>
       </c>
       <c r="G42" t="n">
-        <v>-809430.445793055</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3282.0659</v>
       </c>
       <c r="G43" t="n">
-        <v>-812712.511693055</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>505.9998</v>
       </c>
       <c r="G44" t="n">
-        <v>-812206.5118930551</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>15599.6018</v>
       </c>
       <c r="G45" t="n">
-        <v>-827806.113693055</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>19392.5089</v>
       </c>
       <c r="G46" t="n">
-        <v>-847198.622593055</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,24 +1793,15 @@
         <v>61167.3566</v>
       </c>
       <c r="G47" t="n">
-        <v>-908365.9791930551</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1972,24 +1823,15 @@
         <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>-908315.9791930551</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>28.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2011,24 +1853,15 @@
         <v>85190.95110000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-993506.930293055</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2050,22 +1883,15 @@
         <v>26570.7203</v>
       </c>
       <c r="G50" t="n">
-        <v>-993506.930293055</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2087,24 +1913,15 @@
         <v>7980.34</v>
       </c>
       <c r="G51" t="n">
-        <v>-993506.930293055</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2126,24 +1943,19 @@
         <v>25.0208</v>
       </c>
       <c r="G52" t="n">
-        <v>-993481.909493055</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>28.8</v>
       </c>
       <c r="I52" t="n">
         <v>28.8</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2165,24 +1977,21 @@
         <v>77954.3789</v>
       </c>
       <c r="G53" t="n">
-        <v>-1071436.288393055</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>29</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2204,24 +2013,23 @@
         <v>120915.3148</v>
       </c>
       <c r="G54" t="n">
-        <v>-1071436.288393055</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>28.9</v>
       </c>
       <c r="I54" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+        <v>28.8</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2243,24 +2051,19 @@
         <v>44616.5066</v>
       </c>
       <c r="G55" t="n">
-        <v>-1026819.781793055</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>28.9</v>
       </c>
       <c r="I55" t="n">
         <v>28.9</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2282,24 +2085,23 @@
         <v>50</v>
       </c>
       <c r="G56" t="n">
-        <v>-1026769.781793055</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>28.98</v>
       </c>
       <c r="I56" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+        <v>28.9</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2321,24 +2123,21 @@
         <v>18</v>
       </c>
       <c r="G57" t="n">
-        <v>-1026751.781793055</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+        <v>28.9</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2360,22 +2159,15 @@
         <v>12614.1185</v>
       </c>
       <c r="G58" t="n">
-        <v>-1026751.781793055</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2397,22 +2189,15 @@
         <v>7027.0559</v>
       </c>
       <c r="G59" t="n">
-        <v>-1026751.781793055</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2434,22 +2219,15 @@
         <v>1831.7906</v>
       </c>
       <c r="G60" t="n">
-        <v>-1024919.991193055</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2471,22 +2249,15 @@
         <v>831.0427</v>
       </c>
       <c r="G61" t="n">
-        <v>-1024088.948493055</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2508,22 +2279,15 @@
         <v>30318.006</v>
       </c>
       <c r="G62" t="n">
-        <v>-993770.9424930549</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2545,22 +2309,15 @@
         <v>3952.7755</v>
       </c>
       <c r="G63" t="n">
-        <v>-993770.9424930549</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2582,22 +2339,15 @@
         <v>9260.4218</v>
       </c>
       <c r="G64" t="n">
-        <v>-993770.9424930549</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2619,22 +2369,15 @@
         <v>35725.9933</v>
       </c>
       <c r="G65" t="n">
-        <v>-958044.9491930549</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2656,22 +2399,15 @@
         <v>18641.1744</v>
       </c>
       <c r="G66" t="n">
-        <v>-976686.1235930549</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2693,22 +2429,15 @@
         <v>373718.2031</v>
       </c>
       <c r="G67" t="n">
-        <v>-602967.9204930549</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2730,20 +2459,15 @@
         <v>52354.1281</v>
       </c>
       <c r="G68" t="n">
-        <v>-655322.0485930549</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K68" t="n">
+        <v>1</v>
       </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2765,18 +2489,15 @@
         <v>5500</v>
       </c>
       <c r="G69" t="n">
-        <v>-649822.0485930549</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2798,18 +2519,15 @@
         <v>41412.4649</v>
       </c>
       <c r="G70" t="n">
-        <v>-608409.5836930549</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2831,18 +2549,15 @@
         <v>4500</v>
       </c>
       <c r="G71" t="n">
-        <v>-603909.5836930549</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2864,18 +2579,15 @@
         <v>16390.3874</v>
       </c>
       <c r="G72" t="n">
-        <v>-603909.5836930549</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2897,18 +2609,15 @@
         <v>5440</v>
       </c>
       <c r="G73" t="n">
-        <v>-598469.5836930549</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2930,18 +2639,15 @@
         <v>1939</v>
       </c>
       <c r="G74" t="n">
-        <v>-600408.5836930549</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2963,18 +2669,15 @@
         <v>1889.3494</v>
       </c>
       <c r="G75" t="n">
-        <v>-602297.9330930548</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2996,18 +2699,15 @@
         <v>2800</v>
       </c>
       <c r="G76" t="n">
-        <v>-599497.9330930548</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3029,18 +2729,15 @@
         <v>15399.3194</v>
       </c>
       <c r="G77" t="n">
-        <v>-614897.2524930548</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3062,18 +2759,15 @@
         <v>11325.1794</v>
       </c>
       <c r="G78" t="n">
-        <v>-626222.4318930549</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3095,18 +2789,15 @@
         <v>1363.2971</v>
       </c>
       <c r="G79" t="n">
-        <v>-626222.4318930549</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3128,18 +2819,15 @@
         <v>500</v>
       </c>
       <c r="G80" t="n">
-        <v>-625722.4318930549</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3161,18 +2849,15 @@
         <v>4696</v>
       </c>
       <c r="G81" t="n">
-        <v>-630418.4318930549</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3194,18 +2879,15 @@
         <v>4561.6994</v>
       </c>
       <c r="G82" t="n">
-        <v>-630418.4318930549</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3227,18 +2909,15 @@
         <v>4000</v>
       </c>
       <c r="G83" t="n">
-        <v>-630418.4318930549</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3260,18 +2939,15 @@
         <v>3132.688</v>
       </c>
       <c r="G84" t="n">
-        <v>-630418.4318930549</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3293,18 +2969,15 @@
         <v>25000</v>
       </c>
       <c r="G85" t="n">
-        <v>-605418.4318930549</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3326,18 +2999,15 @@
         <v>3331.6841</v>
       </c>
       <c r="G86" t="n">
-        <v>-602086.7477930549</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3359,18 +3029,15 @@
         <v>12543.1643</v>
       </c>
       <c r="G87" t="n">
-        <v>-614629.9120930549</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3392,18 +3059,15 @@
         <v>10771.7009</v>
       </c>
       <c r="G88" t="n">
-        <v>-625401.6129930549</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3425,18 +3089,15 @@
         <v>12662.8177</v>
       </c>
       <c r="G89" t="n">
-        <v>-612738.7952930549</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3458,18 +3119,15 @@
         <v>773.9645</v>
       </c>
       <c r="G90" t="n">
-        <v>-613512.7597930549</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3491,18 +3149,15 @@
         <v>38400</v>
       </c>
       <c r="G91" t="n">
-        <v>-575112.7597930549</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3524,18 +3179,15 @@
         <v>1578.2316</v>
       </c>
       <c r="G92" t="n">
-        <v>-573534.5281930548</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3557,18 +3209,15 @@
         <v>4303.8218</v>
       </c>
       <c r="G93" t="n">
-        <v>-577838.3499930549</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3590,18 +3239,15 @@
         <v>2329.2511</v>
       </c>
       <c r="G94" t="n">
-        <v>-580167.6010930549</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3623,18 +3269,15 @@
         <v>15264.1633</v>
       </c>
       <c r="G95" t="n">
-        <v>-580167.6010930549</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3656,18 +3299,15 @@
         <v>23700</v>
       </c>
       <c r="G96" t="n">
-        <v>-580167.6010930549</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3689,18 +3329,15 @@
         <v>36.5904</v>
       </c>
       <c r="G97" t="n">
-        <v>-580167.6010930549</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3722,18 +3359,15 @@
         <v>213.4096</v>
       </c>
       <c r="G98" t="n">
-        <v>-580167.6010930549</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3755,18 +3389,15 @@
         <v>33.9851652056642</v>
       </c>
       <c r="G99" t="n">
-        <v>-580133.6159278492</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3788,18 +3419,15 @@
         <v>997.4583</v>
       </c>
       <c r="G100" t="n">
-        <v>-581131.0742278493</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3821,18 +3449,15 @@
         <v>8860.291999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-589991.3662278493</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3854,18 +3479,15 @@
         <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>-589974.3662278493</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3887,18 +3509,15 @@
         <v>8081.7973</v>
       </c>
       <c r="G103" t="n">
-        <v>-598056.1635278492</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3920,18 +3539,15 @@
         <v>103195.3886</v>
       </c>
       <c r="G104" t="n">
-        <v>-598056.1635278492</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3953,18 +3569,15 @@
         <v>150457.569</v>
       </c>
       <c r="G105" t="n">
-        <v>-598056.1635278492</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3986,18 +3599,15 @@
         <v>9510</v>
       </c>
       <c r="G106" t="n">
-        <v>-598056.1635278492</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4019,18 +3629,15 @@
         <v>4093.561</v>
       </c>
       <c r="G107" t="n">
-        <v>-602149.7245278492</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4052,18 +3659,15 @@
         <v>8451.8688</v>
       </c>
       <c r="G108" t="n">
-        <v>-593697.8557278492</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4085,18 +3689,15 @@
         <v>1425.0888</v>
       </c>
       <c r="G109" t="n">
-        <v>-595122.9445278492</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4118,18 +3719,15 @@
         <v>1426.012249064308</v>
       </c>
       <c r="G110" t="n">
-        <v>-593696.9322787849</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4151,18 +3749,15 @@
         <v>27331.5705</v>
       </c>
       <c r="G111" t="n">
-        <v>-621028.502778785</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4184,18 +3779,15 @@
         <v>4471.8239</v>
       </c>
       <c r="G112" t="n">
-        <v>-621028.502778785</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4217,18 +3809,15 @@
         <v>2000</v>
       </c>
       <c r="G113" t="n">
-        <v>-623028.502778785</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4250,18 +3839,15 @@
         <v>1000</v>
       </c>
       <c r="G114" t="n">
-        <v>-622028.502778785</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4283,18 +3869,15 @@
         <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>-622028.502778785</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4316,18 +3899,15 @@
         <v>17</v>
       </c>
       <c r="G116" t="n">
-        <v>-622011.502778785</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4349,18 +3929,15 @@
         <v>456699.2253</v>
       </c>
       <c r="G117" t="n">
-        <v>-1078710.728078785</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4382,18 +3959,15 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>-1078610.728078785</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4415,18 +3989,15 @@
         <v>500</v>
       </c>
       <c r="G119" t="n">
-        <v>-1079110.728078785</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4448,18 +4019,15 @@
         <v>4984</v>
       </c>
       <c r="G120" t="n">
-        <v>-1084094.728078785</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4481,18 +4049,15 @@
         <v>69.99490200782461</v>
       </c>
       <c r="G121" t="n">
-        <v>-1084024.733176777</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4514,18 +4079,15 @@
         <v>7445.2236</v>
       </c>
       <c r="G122" t="n">
-        <v>-1084024.733176777</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4547,18 +4109,15 @@
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>-1083924.733176777</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4580,18 +4139,15 @@
         <v>3738</v>
       </c>
       <c r="G124" t="n">
-        <v>-1087662.733176777</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4613,18 +4169,15 @@
         <v>40906.9311</v>
       </c>
       <c r="G125" t="n">
-        <v>-1128569.664276777</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4646,18 +4199,15 @@
         <v>51943.8998</v>
       </c>
       <c r="G126" t="n">
-        <v>-1128569.664276777</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4679,18 +4229,15 @@
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>-1128469.664276777</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4712,18 +4259,15 @@
         <v>37565.8904</v>
       </c>
       <c r="G128" t="n">
-        <v>-1166035.554676777</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4745,18 +4289,15 @@
         <v>20000</v>
       </c>
       <c r="G129" t="n">
-        <v>-1166035.554676777</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4778,18 +4319,15 @@
         <v>35.01706484641638</v>
       </c>
       <c r="G130" t="n">
-        <v>-1166000.537611931</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4811,18 +4349,15 @@
         <v>9963.0646</v>
       </c>
       <c r="G131" t="n">
-        <v>-1166000.537611931</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4844,18 +4379,15 @@
         <v>116216.3213</v>
       </c>
       <c r="G132" t="n">
-        <v>-1049784.216311931</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4877,18 +4409,15 @@
         <v>5513.1485</v>
       </c>
       <c r="G133" t="n">
-        <v>-1044271.067811931</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4910,18 +4439,15 @@
         <v>4486.8515</v>
       </c>
       <c r="G134" t="n">
-        <v>-1044271.067811931</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4943,18 +4469,15 @@
         <v>438.0086409136715</v>
       </c>
       <c r="G135" t="n">
-        <v>-1043833.059171017</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4976,18 +4499,15 @@
         <v>2497.010165462168</v>
       </c>
       <c r="G136" t="n">
-        <v>-1041336.049005555</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5009,18 +4529,15 @@
         <v>18052.00469956361</v>
       </c>
       <c r="G137" t="n">
-        <v>-1059388.053705119</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5042,18 +4559,15 @@
         <v>85.98657718120805</v>
       </c>
       <c r="G138" t="n">
-        <v>-1059302.067127937</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5075,18 +4589,15 @@
         <v>2700.8593</v>
       </c>
       <c r="G139" t="n">
-        <v>-1062002.926427937</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5108,18 +4619,15 @@
         <v>2198.443224768002</v>
       </c>
       <c r="G140" t="n">
-        <v>-1059804.483203169</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5141,18 +4649,15 @@
         <v>30769.9225</v>
       </c>
       <c r="G141" t="n">
-        <v>-1090574.40570317</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5174,18 +4679,15 @@
         <v>23559.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>-1067014.40580317</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5207,18 +4709,15 @@
         <v>106831.0931</v>
       </c>
       <c r="G143" t="n">
-        <v>-1067014.40580317</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5240,18 +4739,15 @@
         <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>-1067514.40580317</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5273,18 +4769,15 @@
         <v>4092.9302</v>
       </c>
       <c r="G145" t="n">
-        <v>-1067514.40580317</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5306,18 +4799,15 @@
         <v>5522.0572</v>
       </c>
       <c r="G146" t="n">
-        <v>-1061992.34860317</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5339,18 +4829,15 @@
         <v>957.5</v>
       </c>
       <c r="G147" t="n">
-        <v>-1061992.34860317</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5372,18 +4859,15 @@
         <v>59.2888</v>
       </c>
       <c r="G148" t="n">
-        <v>-1061992.34860317</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5405,18 +4889,15 @@
         <v>4903</v>
       </c>
       <c r="G149" t="n">
-        <v>-1066895.34860317</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5438,18 +4919,15 @@
         <v>1634</v>
       </c>
       <c r="G150" t="n">
-        <v>-1066895.34860317</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5471,18 +4949,15 @@
         <v>11810</v>
       </c>
       <c r="G151" t="n">
-        <v>-1078705.34860317</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5504,18 +4979,15 @@
         <v>20080</v>
       </c>
       <c r="G152" t="n">
-        <v>-1058625.34860317</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
